--- a/excel_data_analysis.xlsx
+++ b/excel_data_analysis.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\Excel\data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72837113-5E6E-480D-8EBC-68F6E2D0CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2FD72-AC3C-44AE-902C-F9999EAE7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Quick Statistics" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$E$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="64">
   <si>
     <t>Product</t>
   </si>
@@ -203,6 +204,33 @@
   <si>
     <t>Are there any anomalies in the data?</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>First Q</t>
+  </si>
+  <si>
+    <t>Second Q</t>
+  </si>
+  <si>
+    <t>Third Q</t>
+  </si>
+  <si>
+    <t>Distinct Count</t>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +311,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
@@ -305,7 +357,27 @@
   <autoFilter ref="W1:X23" xr:uid="{6DAC1E92-D947-4232-891E-65555AD7A47E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1B8963D1-E60F-4400-A175-651A513B826F}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{1798A7DA-FB9F-46D3-AA0A-B6BCA4A81AC3}" name="Cost per unit" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1798A7DA-FB9F-46D3-AA0A-B6BCA4A81AC3}" name="Cost per unit" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66267E96-8E9D-4746-B33C-29A16589017B}" name="data" displayName="data" ref="A1:E301" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E301" xr:uid="{66267E96-8E9D-4746-B33C-29A16589017B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E478B7BD-B769-4EEA-AA6C-E6889431C4D3}" name="Sales Person"/>
+    <tableColumn id="2" xr3:uid="{F12F1D76-2CBD-4903-AB5A-66FE6E9721B8}" name="Geography"/>
+    <tableColumn id="3" xr3:uid="{D1D3DCAC-E585-4A00-8C09-F7E6CCC6992E}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{F8893B66-396E-4857-B1D8-7C1DCFF99633}" name="Amount" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B039FF9A-CFE2-4FB6-B1CB-6E84216429DE}" name="Units" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -610,14 +682,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:X648"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
@@ -7337,8 +7409,153 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8446D4A-108D-472F-9810-478F951E0CD1}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(data[Amount])</f>
+        <v>4136.2299999999996</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(data[Units])</f>
+        <v>152.19999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <f>MEDIAN(data[Amount])</f>
+        <v>3437</v>
+      </c>
+      <c r="D4">
+        <f>MEDIAN(data[Units])</f>
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <f>MIN(data[Amount])</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>MIN(data[Units])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <f>MAX(data[Amount])</f>
+        <v>16184</v>
+      </c>
+      <c r="D6">
+        <f>MAX(data[Units])</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <f>C6-C5</f>
+        <v>16184</v>
+      </c>
+      <c r="D7">
+        <f>D6-D5</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.PERCENTILE.EXC(data[Amount], 0.25)</f>
+        <v>1652</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.PERCENTILE.EXC(data[Units], 0.25)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.PERCENTILE.EXC(data[Amount],0.5)</f>
+        <v>3437</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.PERCENTILE.EXC(data[Units],0.5)</f>
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <f>_xlfn.PERCENTILE.EXC(data[Amount],0.75)</f>
+        <v>6245.75</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.PERCENTILE.EXC(data[Units],0.75)</f>
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <f>COUNT(_xlfn.UNIQUE(data[Amount]))</f>
+        <v>268</v>
+      </c>
+      <c r="D11">
+        <f>COUNT(_xlfn.UNIQUE(data[Units]))</f>
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>